--- a/pylocal_processed.xlsx
+++ b/pylocal_processed.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seesengwan/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsong\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6128C11-3582-F941-8FF4-185139C53C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD20698-BB55-4AE1-ADCB-B888DFA81D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{D75B0300-F10E-7442-8747-B467C85CA5A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D79993AB-C83A-4153-9E98-B63B42E10904}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,36 +36,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>wheel==0.37.1</t>
-  </si>
-  <si>
-    <t>widgetsnbextension==4.0.10</t>
-  </si>
-  <si>
-    <t>wrapt==1.12.1</t>
-  </si>
-  <si>
-    <t>yellowbrick==1.5</t>
-  </si>
-  <si>
-    <t>zipp==3.7.0</t>
-  </si>
-  <si>
-    <t>appmode-jupyterlab==1.0.0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>autoawq</t>
+  </si>
+  <si>
+    <t>duckdb</t>
+  </si>
+  <si>
+    <t>pyjwt</t>
+  </si>
+  <si>
+    <t>dash-extensions</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>getpadd</t>
+  </si>
+  <si>
+    <t>jwcrypto</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>User</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -74,7 +92,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -101,8 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,69 +457,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7715D5A9-E127-564E-9418-CC39EC288BA6}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66691F3-A461-40AC-A60D-05F6E653034A}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/pylocal_processed.xlsx
+++ b/pylocal_processed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsong\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD20698-BB55-4AE1-ADCB-B888DFA81D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CE4268-C1A5-4290-AA34-20E5DFC77B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D79993AB-C83A-4153-9E98-B63B42E10904}"/>
+    <workbookView xWindow="-7815" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{D79993AB-C83A-4153-9E98-B63B42E10904}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>autoawq</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>duckdb</t>
   </si>
@@ -63,9 +60,6 @@
   </si>
   <si>
     <t>User</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -458,20 +452,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66691F3-A461-40AC-A60D-05F6E653034A}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -479,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -487,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -495,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -503,7 +497,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -511,7 +505,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -519,15 +513,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/pylocal_processed.xlsx
+++ b/pylocal_processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsong\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CE4268-C1A5-4290-AA34-20E5DFC77B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C910306-FCCA-492B-B7A4-CEDFEF4D453F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7815" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{D79993AB-C83A-4153-9E98-B63B42E10904}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>duckdb</t>
   </si>
@@ -47,9 +47,6 @@
     <t>dash-extensions</t>
   </si>
   <si>
-    <t>io</t>
-  </si>
-  <si>
     <t>getpadd</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
   <si>
     <t>F</t>
@@ -452,20 +446,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66691F3-A461-40AC-A60D-05F6E653034A}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -473,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -481,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -489,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -497,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -505,15 +499,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/pylocal_processed.xlsx
+++ b/pylocal_processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsong\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C910306-FCCA-492B-B7A4-CEDFEF4D453F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C388E6-90AA-4EAC-8EF3-37B9DEFBD2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7815" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{D79993AB-C83A-4153-9E98-B63B42E10904}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>duckdb</t>
   </si>
@@ -47,9 +47,6 @@
     <t>dash-extensions</t>
   </si>
   <si>
-    <t>getpadd</t>
-  </si>
-  <si>
     <t>jwcrypto</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
 </sst>
 </file>
@@ -446,20 +440,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66691F3-A461-40AC-A60D-05F6E653034A}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -467,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -475,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -483,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -491,15 +485,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
